--- a/com.AutomationFramework/src/test/resources/TestData.xlsx
+++ b/com.AutomationFramework/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\eclipse-workspace\com.AutomationFramework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\git\QWA_SJFVD-M2Repository\com.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E97D69-F115-4D03-B4CC-6B17988084BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B4F20F-B31D-4734-8EAF-FDCE877DF0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{8A9FA301-F2F1-4445-BF2A-26233E0AB660}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{8A9FA301-F2F1-4445-BF2A-26233E0AB660}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>manager</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>nimkar@1</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,29 +448,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
